--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3330093976529352</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.608400306827098</v>
+        <v>-1.605725261330448</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0574966716125924</v>
+        <v>0.06124126310216674</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1876693986829601</v>
+        <v>-0.1868304464913069</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3355568595256465</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.545419866736055</v>
+        <v>-1.541151126879087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08304457597042386</v>
+        <v>0.08687416449254844</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1889018556549386</v>
+        <v>-0.1879967946601907</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.349508632202068</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.651293901901663</v>
+        <v>-1.647450934217008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09584292544571976</v>
+        <v>0.09946789148207524</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.18677378180294</v>
+        <v>-0.1856798385136361</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3680286235537711</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.699924796673369</v>
+        <v>-1.694930434001483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1375843385234927</v>
+        <v>0.1418656705334306</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2176308526569187</v>
+        <v>-0.2166282024766502</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3800228377892116</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782589132885839</v>
+        <v>-1.780516149703086</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2239035471356224</v>
+        <v>0.2294850189397546</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2655849192064655</v>
+        <v>-0.2648435562003328</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.376562259175361</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.707583186708058</v>
+        <v>-1.707212505204992</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2964957349908888</v>
+        <v>0.3030043040574672</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2756287352194852</v>
+        <v>-0.2754854994794468</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3550534038544203</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.535580673208804</v>
+        <v>-1.536714753985701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3676964899429254</v>
+        <v>0.3732858318426642</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2776497757712352</v>
+        <v>-0.2781959604063266</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.31750582556815</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.178858358719747</v>
+        <v>-1.181291792281278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3990367846671434</v>
+        <v>0.4035557935643977</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2728852198910581</v>
+        <v>-0.2738044470578977</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2671307900915461</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7807975800479705</v>
+        <v>-0.7830185210281257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4375404404124009</v>
+        <v>0.4420106547168948</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2332041978430677</v>
+        <v>-0.2341596274496972</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2070849498361391</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2568522611214892</v>
+        <v>-0.2578706514929708</v>
       </c>
       <c r="F11" t="n">
-        <v>0.408938938959246</v>
+        <v>0.4126111255692406</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.175220481452593</v>
+        <v>-0.1763994217744472</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1398431914158878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3129584009805727</v>
+        <v>0.3134935674818149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2829166720314278</v>
+        <v>0.2856948157805235</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1211434805211866</v>
+        <v>-0.122150852758819</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06695684964510308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8945285599378722</v>
+        <v>0.8957090742788477</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08828133758699125</v>
+        <v>0.08949805436775668</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.00829575363865505</v>
+        <v>-0.009246461187920664</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.009301646544143132</v>
       </c>
       <c r="E14" t="n">
-        <v>1.593679521275454</v>
+        <v>1.598862766241897</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005163683867587132</v>
+        <v>0.007486936090626947</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08905260695642858</v>
+        <v>0.08873622911304715</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08659276233055099</v>
       </c>
       <c r="E15" t="n">
-        <v>2.254569225812459</v>
+        <v>2.262376360654111</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1390369298921328</v>
+        <v>-0.1360887920779366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2059644512101585</v>
+        <v>0.2057362184375699</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1643533568585076</v>
       </c>
       <c r="E16" t="n">
-        <v>2.853617293092682</v>
+        <v>2.86223189974356</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.267602811719973</v>
+        <v>-0.2629956577519258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3100590577591368</v>
+        <v>0.3094861147989834</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2407993297430188</v>
       </c>
       <c r="E17" t="n">
-        <v>3.390014677287772</v>
+        <v>3.399018066661613</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3838756042104547</v>
+        <v>-0.376051155158469</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3954354289176075</v>
+        <v>0.3948672080148179</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3170687560668205</v>
       </c>
       <c r="E18" t="n">
-        <v>3.861397201677538</v>
+        <v>3.870828724252372</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5643085641233953</v>
+        <v>-0.5559190422068625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4929254512336081</v>
+        <v>0.4915780908657748</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.401162069173301</v>
       </c>
       <c r="E19" t="n">
-        <v>4.237250931576445</v>
+        <v>4.24617561999422</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7671429641706871</v>
+        <v>-0.7578751395844686</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6148159179680122</v>
+        <v>0.6135488325753651</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.500915943995469</v>
       </c>
       <c r="E20" t="n">
-        <v>4.515087342753715</v>
+        <v>4.522230241526176</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.975979886137059</v>
+        <v>-0.9654127087662069</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7213439580785214</v>
+        <v>0.7203114015349481</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6176886555527387</v>
       </c>
       <c r="E21" t="n">
-        <v>4.724841130858244</v>
+        <v>4.731208038203905</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.098538523988455</v>
+        <v>-1.086446909098623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.863904443913846</v>
+        <v>0.8629804946896424</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7470830048575929</v>
       </c>
       <c r="E22" t="n">
-        <v>4.873123176199496</v>
+        <v>4.877985321265195</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.267530725918222</v>
+        <v>-1.253743105425188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9647959215509775</v>
+        <v>0.9638184556766497</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8811733142790683</v>
       </c>
       <c r="E23" t="n">
-        <v>4.922160167904498</v>
+        <v>4.924338610368379</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.516014041511915</v>
+        <v>-1.504031033941453</v>
       </c>
       <c r="G23" t="n">
-        <v>1.019031898413635</v>
+        <v>1.017662501778104</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.009126826765482</v>
       </c>
       <c r="E24" t="n">
-        <v>4.973799013217009</v>
+        <v>4.974398714502225</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.721855605090452</v>
+        <v>-1.711329352216754</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11496521581867</v>
+        <v>1.114552822808889</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.121261098320695</v>
       </c>
       <c r="E25" t="n">
-        <v>4.942324926867482</v>
+        <v>4.941201077214872</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.881630351045882</v>
+        <v>-1.871852544264362</v>
       </c>
       <c r="G25" t="n">
-        <v>1.16194339051301</v>
+        <v>1.161287024539428</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.210771980779815</v>
       </c>
       <c r="E26" t="n">
-        <v>4.930743294172951</v>
+        <v>4.929414822034573</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.94322486730062</v>
+        <v>-1.933856305490638</v>
       </c>
       <c r="G26" t="n">
-        <v>1.190988765358372</v>
+        <v>1.190017595560529</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.272925262588201</v>
       </c>
       <c r="E27" t="n">
-        <v>4.837841537595541</v>
+        <v>4.835946418573496</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.027940937437705</v>
+        <v>-2.019833951953446</v>
       </c>
       <c r="G27" t="n">
-        <v>1.211181856665538</v>
+        <v>1.210314572129701</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.30517354896552</v>
       </c>
       <c r="E28" t="n">
-        <v>4.721334216255986</v>
+        <v>4.718562368583376</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.091689498859944</v>
+        <v>-2.08467881769367</v>
       </c>
       <c r="G28" t="n">
-        <v>1.199631704353433</v>
+        <v>1.198893489385544</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.309074422655136</v>
       </c>
       <c r="E29" t="n">
-        <v>4.599564948993923</v>
+        <v>4.595897484441291</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.182123193455153</v>
+        <v>-2.177338175326399</v>
       </c>
       <c r="G29" t="n">
-        <v>1.165189017941132</v>
+        <v>1.164033687906097</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.288261041298058</v>
       </c>
       <c r="E30" t="n">
-        <v>4.497022325298547</v>
+        <v>4.49195555774708</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.183853040469463</v>
+        <v>-2.179760590754081</v>
       </c>
       <c r="G30" t="n">
-        <v>1.119010444960412</v>
+        <v>1.117449017992082</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.245903718667861</v>
       </c>
       <c r="E31" t="n">
-        <v>4.310475875118474</v>
+        <v>4.304571729394475</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.147470375490158</v>
+        <v>-2.143979988088674</v>
       </c>
       <c r="G31" t="n">
-        <v>1.052884327655449</v>
+        <v>1.051407897719669</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.184862607251052</v>
       </c>
       <c r="E32" t="n">
-        <v>4.125944169413667</v>
+        <v>4.119046817624127</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.066221082467738</v>
+        <v>-2.062171918278192</v>
       </c>
       <c r="G32" t="n">
-        <v>1.026168501109613</v>
+        <v>1.02447170849685</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.107954783196334</v>
       </c>
       <c r="E33" t="n">
-        <v>3.91100241428533</v>
+        <v>3.902699463420469</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.009677593573253</v>
+        <v>-2.005858236175417</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9439102618304386</v>
+        <v>0.9418530188388986</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.018124246943544</v>
       </c>
       <c r="E34" t="n">
-        <v>3.698527147120071</v>
+        <v>3.688799708950433</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.910896088568225</v>
+        <v>-1.906625774692136</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8540872866542936</v>
+        <v>0.8514964511806327</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9187694928598896</v>
       </c>
       <c r="E35" t="n">
-        <v>3.459592618525748</v>
+        <v>3.449887216623808</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.847025540664086</v>
+        <v>-1.842790642218227</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7847958168963947</v>
+        <v>0.7816100021948821</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8149123529808359</v>
       </c>
       <c r="E36" t="n">
-        <v>3.226063271593972</v>
+        <v>3.215899830127733</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.76636178275479</v>
+        <v>-1.761307607356293</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7313688858620855</v>
+        <v>0.7283640833595224</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7108157744939988</v>
       </c>
       <c r="E37" t="n">
-        <v>3.038662129031033</v>
+        <v>3.029403748559542</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.693250168589494</v>
+        <v>-1.687320051549994</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6703457385483791</v>
+        <v>0.6671394615982896</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6098628525199133</v>
       </c>
       <c r="E38" t="n">
-        <v>2.80626292782835</v>
+        <v>2.795901159952828</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.624705570904652</v>
+        <v>-1.618382736094387</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5908861052668778</v>
+        <v>0.5871682721023656</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5160520852729052</v>
       </c>
       <c r="E39" t="n">
-        <v>2.558433617179557</v>
+        <v>2.547607513663251</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.574514036174177</v>
+        <v>-1.567885841654379</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5322649111322763</v>
+        <v>0.529274274801805</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4311876440964442</v>
       </c>
       <c r="E40" t="n">
-        <v>2.312444334883564</v>
+        <v>2.301700080361566</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.504572496519181</v>
+        <v>-1.498403128573242</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5045794888077184</v>
+        <v>0.5018973602250221</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3549075663235907</v>
       </c>
       <c r="E41" t="n">
-        <v>2.111739582707392</v>
+        <v>2.100296463695536</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.480843371256012</v>
+        <v>-1.474799924839778</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4322548842030732</v>
+        <v>0.4288628729966702</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2866595260929506</v>
       </c>
       <c r="E42" t="n">
-        <v>1.906688963737309</v>
+        <v>1.895526020129044</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.445951302384579</v>
+        <v>-1.438638409547016</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4148556768362153</v>
+        <v>0.4123451163377407</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2249232520869787</v>
       </c>
       <c r="E43" t="n">
-        <v>1.7604200888522</v>
+        <v>1.75035108853324</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.410178569814778</v>
+        <v>-1.403498432663978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3699772436496901</v>
+        <v>0.3670511421031922</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1675790267526729</v>
       </c>
       <c r="E44" t="n">
-        <v>1.526416962164912</v>
+        <v>1.515941864912656</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.369987565571487</v>
+        <v>-1.363157896604163</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3165440165388957</v>
+        <v>0.3139028124533532</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1132681508062203</v>
       </c>
       <c r="E45" t="n">
-        <v>1.329145145692297</v>
+        <v>1.318437093610088</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.314988976444559</v>
+        <v>-1.308936085913597</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2985262196573667</v>
+        <v>0.296517771258587</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.06146096612346798</v>
       </c>
       <c r="E46" t="n">
-        <v>1.169246839235845</v>
+        <v>1.159044047291574</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.269196825158118</v>
+        <v>-1.26306287264241</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2750387063293179</v>
+        <v>0.2736456994069668</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.0118660107011239</v>
       </c>
       <c r="E47" t="n">
-        <v>1.021595975562234</v>
+        <v>1.012414722027687</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.191045201766418</v>
+        <v>-1.185350400585552</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2454487208679862</v>
+        <v>0.2442634844696468</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.03516015183838413</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8736004017010582</v>
+        <v>0.8640775860171891</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.170752160245049</v>
+        <v>-1.165700345875234</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2058448257569396</v>
+        <v>0.2051900338024785</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07874931744856604</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7420989742119922</v>
+        <v>0.7334166847388977</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.090719584003394</v>
+        <v>-1.084941359809099</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1655326220413077</v>
+        <v>0.1649439388899412</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1181241434502061</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6093902740568886</v>
+        <v>0.601241577065915</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.033524451192691</v>
+        <v>-1.027591186114948</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1230986405501625</v>
+        <v>0.1223919059646985</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1528996036616579</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4919574294740082</v>
+        <v>0.4835096688499875</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9726878251448586</v>
+        <v>-0.9668112247554825</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1023514945122981</v>
+        <v>0.1019863220761563</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1823422879201144</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3726751124235995</v>
+        <v>0.3651560230811461</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9462820803659183</v>
+        <v>-0.9401615070127406</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06045267952239509</v>
+        <v>0.05995214144182148</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2061114037054703</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2142894383427178</v>
+        <v>0.2052939190644844</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9267217447455147</v>
+        <v>-0.9212528153085554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02321768318890602</v>
+        <v>0.02261483386544786</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2245757138030922</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1103160312660796</v>
+        <v>0.1021673342751059</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8798820837338488</v>
+        <v>-0.8745225486258199</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01327752415757173</v>
+        <v>-0.01396379649445883</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2374706472501868</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01423318204452169</v>
+        <v>0.006802237772861148</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8540004873223016</v>
+        <v>-0.8478523686345011</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04167597714407874</v>
+        <v>-0.04191208001227384</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2453284327756969</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08270750759814506</v>
+        <v>-0.09059649143410411</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8521037942811343</v>
+        <v>-0.8459737768132287</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04800983008819271</v>
+        <v>-0.04789492669233775</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2488153479008209</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2148511348887017</v>
+        <v>-0.2237663791917488</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8402923547948939</v>
+        <v>-0.8341127557246674</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0898881828295188</v>
+        <v>-0.08977327943366385</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2488759264993606</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.30310481300091</v>
+        <v>-0.3113510991774043</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.791573314952395</v>
+        <v>-0.7840463555143351</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.121475598555781</v>
+        <v>-0.1217825322844346</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2465350650947208</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4221211208198189</v>
+        <v>-0.4315951419109277</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8437732980816504</v>
+        <v>-0.8373623182005927</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1486179842834901</v>
+        <v>-0.1487313136602237</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2428018900180442</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4832229690895903</v>
+        <v>-0.4923522799931342</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8168300257727859</v>
+        <v>-0.8095344471455571</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1674023284770925</v>
+        <v>-0.1671347452264713</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2390050115331242</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5828505093723173</v>
+        <v>-0.5921309261115062</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8360794926167326</v>
+        <v>-0.8290743205173839</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1999829502688954</v>
+        <v>-0.1998806390260109</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2356435929422837</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6719777680968475</v>
+        <v>-0.6809717133559596</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8777366956715159</v>
+        <v>-0.8702978813042489</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2256473320417031</v>
+        <v>-0.2248949509017214</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2328692657078308</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7551599566002249</v>
+        <v>-0.7639256690867484</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8793579353664557</v>
+        <v>-0.8718160227467434</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.239440461601661</v>
+        <v>-0.238670766251345</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2306836792033665</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8048123897816551</v>
+        <v>-0.8138692958056193</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8876789874512118</v>
+        <v>-0.8803558634893603</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2660823092487965</v>
+        <v>-0.265640009875711</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2286479945238028</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8831820148216557</v>
+        <v>-0.8916470896560108</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.890723927441368</v>
+        <v>-0.8827145311426294</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2781975344254479</v>
+        <v>-0.2771728479774812</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2268819597055614</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9117567579497484</v>
+        <v>-0.9199306392466629</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.90152091160393</v>
+        <v>-0.8938263191294515</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2921858423564471</v>
+        <v>-0.2921024193430182</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2253261535626628</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9821524021212397</v>
+        <v>-0.9899508798577239</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8778870144976002</v>
+        <v>-0.8696139699960438</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2867601984453236</v>
+        <v>-0.2860361496495253</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2241026407517</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.003965946113785</v>
+        <v>-1.010600436710068</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9326195943930283</v>
+        <v>-0.9244764064689792</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3081369521317083</v>
+        <v>-0.30737670089612</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2227932637011176</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.016391253057333</v>
+        <v>-1.023276799703463</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.914026493522664</v>
+        <v>-0.9057361348107732</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3252418179228829</v>
+        <v>-0.3245445274521466</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2208862514601227</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.02162722766434</v>
+        <v>-1.027878444604585</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9481740513497218</v>
+        <v>-0.9399025808672866</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3252622801714598</v>
+        <v>-0.3244799926681733</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2178886483044471</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9890442448438548</v>
+        <v>-0.9945548857875285</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9918578040231797</v>
+        <v>-0.9835910555981086</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3222716438409884</v>
+        <v>-0.3212689936607199</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2130156931290887</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9276134265777315</v>
+        <v>-0.9321253523889399</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.048887664826146</v>
+        <v>-1.041439406344151</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.296210609249613</v>
+        <v>-0.2945877955355519</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2055113498081883</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8587524510495084</v>
+        <v>-0.8631156320537539</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.085020060765164</v>
+        <v>-1.078488668421327</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2998135390182702</v>
+        <v>-0.29844571640186</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1953857345332662</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8013747320207344</v>
+        <v>-0.8049729397320278</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.129668687159979</v>
+        <v>-1.123742505168282</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2966812409668819</v>
+        <v>-0.2953244364843207</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1824192018969866</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6795865765292149</v>
+        <v>-0.6824276810431628</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.169736130902249</v>
+        <v>-1.164187713499664</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2657785235583854</v>
+        <v>-0.264032936352863</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1667755115168701</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5375187586788575</v>
+        <v>-0.5393603610507793</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.231115006537369</v>
+        <v>-1.226616459888692</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2361334474278083</v>
+        <v>-0.2342713828073096</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1489528752269567</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4182820881829665</v>
+        <v>-0.4194059378355752</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.230254018078018</v>
+        <v>-1.225893985112015</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1985442967920266</v>
+        <v>-0.1967798213570485</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1297416716117629</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2837711361339736</v>
+        <v>-0.2845959221535352</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.263072316757137</v>
+        <v>-1.258741403144878</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1771124524363964</v>
+        <v>-0.1757273156096518</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1095598631839924</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1370284814933531</v>
+        <v>-0.1374550406752256</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.283160735792737</v>
+        <v>-1.280325927355275</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1411256532660988</v>
+        <v>-0.1394288606533367</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.08866571039554198</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004474263492457431</v>
+        <v>0.003751788715780415</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.2695132030015</v>
+        <v>-1.266827926380561</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1139801195001471</v>
+        <v>-0.1126280370749498</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06764373740781765</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1581567684388927</v>
+        <v>0.1567889458224824</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.308046765110062</v>
+        <v>-1.305947810611807</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09497541262956262</v>
+        <v>-0.09363592235733574</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.04713541162496616</v>
       </c>
       <c r="E82" t="n">
-        <v>0.269888515764422</v>
+        <v>0.2680642276028345</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.312441426496733</v>
+        <v>-1.310229929631306</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02436963690537767</v>
+        <v>-0.02202592243376095</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02816767093945718</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4318629534418693</v>
+        <v>0.4291666586870812</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.289896750622344</v>
+        <v>-1.28835578590259</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01126592772054945</v>
+        <v>-0.009032394587423772</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0115916320668521</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5657348537276141</v>
+        <v>0.5622027548194153</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.289498523784655</v>
+        <v>-1.288771326950614</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06763650279201143</v>
+        <v>0.07110564093535815</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.001661367181718996</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7038062370289891</v>
+        <v>0.7007258816086037</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.237182063240423</v>
+        <v>-1.236288807389085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1069665185759517</v>
+        <v>0.1106544453771592</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.01091109999755335</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8897514119047246</v>
+        <v>0.8867466094021615</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.196490520916557</v>
+        <v>-1.196237103838028</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1511209029666786</v>
+        <v>0.1546498538366348</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01575351697625521</v>
       </c>
       <c r="E87" t="n">
-        <v>1.012110936337276</v>
+        <v>1.009594079762316</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.063299383900775</v>
+        <v>-1.062547002760794</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1818284420041337</v>
+        <v>0.1853322085681491</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01630159458927277</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146699015323213</v>
+        <v>1.144722047306859</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9487351891664655</v>
+        <v>-0.9478151749900652</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2136708488280467</v>
+        <v>0.2166473189864263</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01278993060818849</v>
       </c>
       <c r="E89" t="n">
-        <v>1.252126816067933</v>
+        <v>1.249484037963269</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8630101727726267</v>
+        <v>-0.8623695469902574</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2255861735762928</v>
+        <v>0.2286618069393144</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.006594298657606311</v>
       </c>
       <c r="E90" t="n">
-        <v>1.329431617172373</v>
+        <v>1.326990313515236</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7455238115396221</v>
+        <v>-0.745962962874465</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1948912266918081</v>
+        <v>0.19653922471181</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.000830831696261136</v>
       </c>
       <c r="E91" t="n">
-        <v>1.32157411371884</v>
+        <v>1.318679492554768</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6043028159765244</v>
+        <v>-0.6046333599919975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1898386253124329</v>
+        <v>0.1919163305525498</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.007933431188839763</v>
       </c>
       <c r="E92" t="n">
-        <v>1.308619936350536</v>
+        <v>1.305906327385413</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.471967158353169</v>
+        <v>-0.4728092585830649</v>
       </c>
       <c r="G92" t="n">
-        <v>0.16568057983871</v>
+        <v>0.1670562725507268</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01414066764565214</v>
       </c>
       <c r="E93" t="n">
-        <v>1.278434971661353</v>
+        <v>1.275523036286946</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3355217368040976</v>
+        <v>-0.3369556682236026</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1589516480951495</v>
+        <v>0.1603131746350746</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01940782669164188</v>
       </c>
       <c r="E94" t="n">
-        <v>1.198751827664627</v>
+        <v>1.195418055165712</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1863960172138279</v>
+        <v>-0.1875623653827117</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1401909141883666</v>
+        <v>0.1416941024492088</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02431047331990664</v>
       </c>
       <c r="E95" t="n">
-        <v>1.166465547448507</v>
+        <v>1.162909838253489</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09252623887681875</v>
+        <v>-0.09415220062912237</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1217308179337522</v>
+        <v>0.1233142811697807</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03063368392416344</v>
       </c>
       <c r="E96" t="n">
-        <v>1.124336925666894</v>
+        <v>1.121986915118792</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01357524205181801</v>
+        <v>0.01192094795533098</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05499712924796691</v>
+        <v>0.0556708094318836</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0391953976516115</v>
       </c>
       <c r="E97" t="n">
-        <v>1.030668621777411</v>
+        <v>1.027706317791123</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06899802933193652</v>
+        <v>0.06796232475012068</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03082334358303094</v>
+        <v>0.03120897826774961</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05200539292116604</v>
       </c>
       <c r="E98" t="n">
-        <v>1.005112847323973</v>
+        <v>1.002723486297839</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1023609386270259</v>
+        <v>0.1019265093495469</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.008072242923430352</v>
+        <v>-0.008017152254184827</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06965079683666235</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9794217072261034</v>
+        <v>0.9779704615962642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1659434410319672</v>
+        <v>0.165968625337908</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02568236885254245</v>
+        <v>-0.02563042622153952</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09517848630660505</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8887629278965478</v>
+        <v>0.8875588032687527</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1544641195803213</v>
+        <v>0.1548009596722796</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03592608529396733</v>
+        <v>-0.03612755974149381</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1260564645012211</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8075907618110713</v>
+        <v>0.806301640150726</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1421710302429629</v>
+        <v>0.1427518432987228</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06454804899569903</v>
+        <v>-0.06482350234192664</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.168109969389568</v>
       </c>
       <c r="E102" t="n">
-        <v>0.685892325409466</v>
+        <v>0.6844395057605055</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1374694351276377</v>
+        <v>0.1375717463705223</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0825516797051363</v>
+        <v>-0.08290740802655025</v>
       </c>
     </row>
   </sheetData>
